--- a/mortgage_reject_rules.xlsx
+++ b/mortgage_reject_rules.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,16 +497,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.5130373502466525</v>
+        <v>0.5038759689922481</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9745649263721553</v>
+        <v>0.9571619812583668</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1486720692292982</v>
+        <v>0.1580548384012239</v>
       </c>
       <c r="H2" t="n">
-        <v>3.174772286149288e-19</v>
+        <v>8.735002215941887e-18</v>
       </c>
     </row>
     <row r="3">
@@ -531,16 +531,16 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.259337561663143</v>
+        <v>0.2536997885835095</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9813333333333333</v>
+        <v>0.96</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1713333333333332</v>
+        <v>0.1649999999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>1.327195588888848e-11</v>
+        <v>5.083850850917517e-09</v>
       </c>
     </row>
     <row r="4">
@@ -565,22 +565,22 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.2142353770260747</v>
+        <v>0.2107117688513037</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9967213114754099</v>
+        <v>0.980327868852459</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1796006889073165</v>
+        <v>0.1709893474516808</v>
       </c>
       <c r="H4" t="n">
-        <v>7.977003465045201e-13</v>
+        <v>1.846678815121596e-10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>RULE7</t>
+          <t>RULE6</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -599,16 +599,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1832276250880902</v>
+        <v>0.1804087385482734</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9848484848484849</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1639529624604251</v>
+        <v>0.1562641338760742</v>
       </c>
       <c r="H5" t="n">
-        <v>1.736050267385436e-08</v>
+        <v>7.240621379427653e-07</v>
       </c>
     </row>
     <row r="6">
@@ -624,7 +624,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'loan_amount': '100k-300k'}</t>
+          <t>{'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.2100070472163496</v>
+        <v>0.2114164904862579</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9900332225913622</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0822662323001</v>
+        <v>0.2171775592828225</v>
       </c>
       <c r="H6" t="n">
-        <v>1.50345831821023e-05</v>
+        <v>4.795513336998368e-13</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'loan_amount': '10k-100k'}</t>
+          <t>{'loan_purpose': 'Home improvement'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.09584214235377025</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9847328244274809</v>
+        <v>0.9927007299270073</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1059449456396021</v>
+        <v>0.1189143221600171</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002266354243924099</v>
+        <v>0.0001885310949746154</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +692,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Home improvement'}</t>
+          <t>{'loan_purpose': 'Other purpose'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -701,16 +701,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.09584214235377025</v>
+        <v>0.04298801973220578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9927007299270073</v>
+        <v>0.9838709677419355</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09949684643186163</v>
+        <v>0.1656891495601173</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0007199105069577076</v>
+        <v>0.003329073498494671</v>
       </c>
     </row>
     <row r="9">
@@ -726,7 +726,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Other purpose'}</t>
+          <t>{'loan_purpose': 'Refinancing'}</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.04369274136715997</v>
+        <v>0.1430584918957012</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0.9712918660287081</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.1117028249328177</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008048224839098021</v>
+        <v>4.935647678477875e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>RULE12</t>
+          <t>RULE13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing'}</t>
+          <t>{'income': '100k-200k', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -769,16 +769,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.145877378435518</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9904306220095693</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.08974569050271997</v>
+        <v>0.171875</v>
       </c>
       <c r="H10" t="n">
-        <v>6.097733390141113e-05</v>
+        <v>0.002049968817490509</v>
       </c>
     </row>
     <row r="11">
@@ -794,7 +794,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'income': '100k-200k', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -803,22 +803,22 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.009161381254404511</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.203125</v>
+        <v>0.6</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008091418090587925</v>
+        <v>0.003519218829649293</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RULE19</t>
+          <t>RULE16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -828,7 +828,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Home purchase', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'derived_sex': 'Female', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -837,22 +837,22 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.009161381254404511</v>
+        <v>0.1000704721634954</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.9726027397260274</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.3009609486812512</v>
       </c>
       <c r="H12" t="n">
-        <v>0.004600263066253369</v>
+        <v>7.693361009829998e-08</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RULE21</t>
+          <t>RULE18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -862,7 +862,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'income': '100k-200k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -871,22 +871,22 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.02184637068357998</v>
+        <v>0.0824524312896406</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0.9669421487603306</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2794117647058824</v>
+        <v>0.2352348316871599</v>
       </c>
       <c r="H13" t="n">
-        <v>0.00199039465201807</v>
+        <v>9.289323544439462e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RULE24</t>
+          <t>RULE19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'derived_sex': 'Female'}</t>
+          <t>{'income': '50k-100k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.102184637068358</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9931506849315068</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3065835207524024</v>
+        <v>0.3423028785982478</v>
       </c>
       <c r="H14" t="n">
-        <v>2.630345429034796e-09</v>
+        <v>5.544382155269504e-07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RULE25</t>
+          <t>RULE21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -930,7 +930,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'income': '100k-200k'}</t>
+          <t>{'loan_amount': 'More than 300k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -939,22 +939,22 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.08456659619450317</v>
+        <v>0.07892882311486962</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9917355371900827</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3210038298730095</v>
+        <v>0.2988505747126438</v>
       </c>
       <c r="H15" t="n">
-        <v>1.084802130380668e-08</v>
+        <v>1.443003723116738e-07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RULE27</t>
+          <t>RULE22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -964,7 +964,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'income': '50k-100k'}</t>
+          <t>{'loan_purpose': 'Home improvement', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -973,22 +973,22 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.06553911205073996</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9893617021276596</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.322695035460993</v>
+        <v>0.21875</v>
       </c>
       <c r="H16" t="n">
-        <v>1.043973565049395e-06</v>
+        <v>0.00569180870552227</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RULE28</t>
+          <t>RULE24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_amount': '100k-300k'}</t>
+          <t>{'loan_purpose': 'Refinancing', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1007,22 +1007,22 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.07751937984496124</v>
+        <v>0.05285412262156448</v>
       </c>
       <c r="F17" t="n">
-        <v>0.990990990990991</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2551419343872174</v>
+        <v>0.1323529411764706</v>
       </c>
       <c r="H17" t="n">
-        <v>2.042010285059821e-06</v>
+        <v>0.001737117345420185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RULE30</t>
+          <t>RULE25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Cash-out refinancing'}</t>
+          <t>{'income': '100k-200k', 'debt_to_income_ratio': '&lt;20%'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.06272022551092318</v>
+        <v>0.01409443269908386</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.325</v>
+        <v>0.3913043478260869</v>
       </c>
       <c r="H18" t="n">
-        <v>8.931335586626822e-07</v>
+        <v>0.005774191458408552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>RULE32</t>
+          <t>RULE46</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1066,7 +1066,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Refinancing'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1075,22 +1075,22 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.05285412262156448</v>
+        <v>0.1028893587033122</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>0.9605263157894737</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1470588235294118</v>
+        <v>0.1086744639376218</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009745658783089449</v>
+        <v>0.005333270039560784</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RULE55</t>
+          <t>RULE48</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'derived_sex': 'Female', 'income': '100k-200k'}</t>
+          <t>{'income': '50k-100k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1109,22 +1109,22 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.1064129668780832</v>
+        <v>0.0916138125440451</v>
       </c>
       <c r="F20" t="n">
-        <v>0.993421052631579</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1168778427550358</v>
+        <v>0.2053872053872053</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001283378087672967</v>
+        <v>5.460136872368283e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RULE57</t>
+          <t>RULE51</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'income': '50k-100k', 'derived_sex': 'Female'}</t>
+          <t>{'loan_amount': 'More than 300k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,22 +1143,22 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.09372797744890768</v>
+        <v>0.09513742071881606</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9851851851851852</v>
+        <v>0.9854014598540146</v>
       </c>
       <c r="G21" t="n">
-        <v>0.3033670033670034</v>
+        <v>0.3054014598540146</v>
       </c>
       <c r="H21" t="n">
-        <v>3.275743422249653e-08</v>
+        <v>4.66351553620257e-09</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RULE62</t>
+          <t>RULE54</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'derived_sex': 'Female'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Joint'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.07892882311486962</v>
+        <v>0.02255109231853418</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9911504424778761</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08393394763251527</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="H22" t="n">
-        <v>0.005660999356891338</v>
+        <v>0.001642662813334219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RULE63</t>
+          <t>RULE58</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1202,7 +1202,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'derived_sex': 'Joint', 'income': '100k-200k'}</t>
+          <t>{'derived_sex': 'Joint', 'loan_purpose': 'Refinancing'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1211,22 +1211,22 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.02255109231853418</v>
+        <v>0.01902748414376321</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4545454545454546</v>
+        <v>0.2394366197183099</v>
       </c>
       <c r="H23" t="n">
-        <v>7.734300185394455e-05</v>
+        <v>0.00730118291188177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RULE65</t>
+          <t>RULE59</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'derived_sex': 'Joint'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Male'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1245,22 +1245,22 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.01902748414376321</v>
+        <v>0.08527131782945736</v>
       </c>
       <c r="F24" t="n">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2676056338028169</v>
+        <v>0.1735537190082644</v>
       </c>
       <c r="H24" t="n">
-        <v>0.004321986470923169</v>
+        <v>5.07072684641349e-06</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RULE66</t>
+          <t>RULE64</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1270,7 +1270,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'derived_sex': 'Male', 'income': '100k-200k'}</t>
+          <t>{'derived_sex': 'Male', 'loan_purpose': 'Refinancing'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1279,22 +1279,22 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.08527131782945736</v>
+        <v>0.04792107117688513</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>0.9855072463768116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.09917355371900827</v>
+        <v>0.1145395044413278</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0005414133187377868</v>
+        <v>0.009038119042914067</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RULE69</t>
+          <t>RULE66</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'loan_amount': '100k-300k', 'derived_sex': 'Male'}</t>
+          <t>{'income': '100k-200k', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1313,22 +1313,22 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>0.08315715292459479</v>
+        <v>0.1099365750528541</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9915966386554622</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1098762085479353</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0009421724886187696</v>
+        <v>5.392625511934518e-09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>RULE72</t>
+          <t>RULE67</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'derived_sex': 'Male', 'loan_purpose': 'Home improvement'}</t>
+          <t>{'income': '100k-200k', 'loan_purpose': 'Cash-out refinancing'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1347,22 +1347,22 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.05990133897110642</v>
       </c>
       <c r="F27" t="n">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.4545454545454546</v>
       </c>
       <c r="H27" t="n">
-        <v>0.006743644897433619</v>
+        <v>1.446596368755653e-07</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RULE77</t>
+          <t>RULE74</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'loan_amount': 'More than 300k', 'income': '100k-200k'}</t>
+          <t>{'income': '50k-100k', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1381,22 +1381,22 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.1099365750528541</v>
+        <v>0.06553911205073996</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.9789473684210527</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2549019607843137</v>
+        <v>0.2845029239766083</v>
       </c>
       <c r="H28" t="n">
-        <v>4.680494380191631e-10</v>
+        <v>3.750550594523661e-06</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RULE78</t>
+          <t>RULE76</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1406,7 +1406,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Cash-out refinancing', 'income': '100k-200k'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'income': '50k-100k'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1415,22 +1415,22 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.05990133897110642</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="F29" t="n">
-        <v>1</v>
+        <v>0.9777777777777777</v>
       </c>
       <c r="G29" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.4977777777777778</v>
       </c>
       <c r="H29" t="n">
-        <v>8.786616797644962e-06</v>
+        <v>0.0001328100939867898</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RULE80</t>
+          <t>RULE83</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Home purchase', 'income': '100k-200k'}</t>
+          <t>{'loan_amount': '100k-300k', 'loan_purpose': 'Home improvement'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1449,22 +1449,22 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.03312191684284708</v>
+        <v>0.04157857646229739</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9791666666666666</v>
+        <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5645325203252032</v>
+        <v>0.125</v>
       </c>
       <c r="H30" t="n">
-        <v>9.073362916357962e-06</v>
+        <v>0.00711935567613546</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RULE89</t>
+          <t>RULE90</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1474,7 +1474,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'loan_amount': '10k-100k', 'income': '50k-100k'}</t>
+          <t>{'loan_purpose': 'Cash-out refinancing', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1483,22 +1483,22 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.03312191684284708</v>
+        <v>0.08104298801973221</v>
       </c>
       <c r="F31" t="n">
-        <v>1</v>
+        <v>0.9663865546218487</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2142857142857143</v>
+        <v>0.2339921884246656</v>
       </c>
       <c r="H31" t="n">
-        <v>0.003090846879597006</v>
+        <v>1.76555688842414e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>RULE93</t>
+          <t>RULE92</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'income': '50k-100k'}</t>
+          <t>{'loan_purpose': 'Refinancing', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1517,22 +1517,22 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.04792107117688513</v>
+        <v>0.06906272022551092</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9855072463768116</v>
+        <v>0.9702970297029703</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1491436100131753</v>
+        <v>0.1345482374324388</v>
       </c>
       <c r="H32" t="n">
-        <v>0.004115627791665659</v>
+        <v>0.001062744877756609</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>RULE101</t>
+          <t>RULE94</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1542,7 +1542,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>{'loan_amount': '100k-300k', 'loan_purpose': 'Other purpose'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'debt_to_income_ratio': '20%-&lt;30%', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1551,22 +1551,22 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.01973220577871741</v>
+        <v>0.005637773079633545</v>
       </c>
       <c r="F33" t="n">
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.008198261375406394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RULE107</t>
+          <t>RULE102</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'loan_amount': 'More than 300k'}</t>
+          <t>{'income': '100k-200k', 'debt_to_income_ratio': '20%-&lt;30%', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1585,22 +1585,22 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.07047216349541931</v>
+        <v>0.0204369274136716</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9900990099009901</v>
+        <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1205337925096858</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0007746469234179729</v>
+        <v>0.007593190092215828</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>RULE109</t>
+          <t>RULE107</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1610,7 +1610,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Home purchase', 'derived_sex': 'Female', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'debt_to_income_ratio': '20%-&lt;30%', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1619,22 +1619,22 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.005637773079633545</v>
+        <v>0.007047216349541931</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.006560697858455778</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RULE118</t>
+          <t>RULE108</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>{'income': '100k-200k', 'loan_amount': 'More than 300k', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'loan_amount': 'More than 300k', 'debt_to_income_ratio': '30%-&lt;36%', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1653,22 +1653,22 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.0204369274136716</v>
+        <v>0.0105708245243129</v>
       </c>
       <c r="F36" t="n">
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>0.3095238095238095</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002307156831635373</v>
+        <v>0.008341821824466005</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>RULE125</t>
+          <t>RULE109</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>{'loan_amount': 'More than 300k', 'loan_purpose': 'Home purchase', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'debt_to_income_ratio': '30%-&lt;36%', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.007047216349541931</v>
+        <v>0.007751937984496124</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6666666666666667</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0.006560697858455778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>RULE126</t>
+          <t>RULE116</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'loan_amount': 'More than 300k', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
+          <t>{'income': '50k-100k', 'derived_sex': 'Female', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1721,22 +1721,22 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>0.0105708245243129</v>
+        <v>0.03664552501761804</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0.3725490196078431</v>
+        <v>0.3214285714285714</v>
       </c>
       <c r="H38" t="n">
-        <v>0.008551031030409231</v>
+        <v>0.0001478434974803091</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RULE129</t>
+          <t>RULE118</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '30%-&lt;36%', 'loan_purpose': 'Cash-out refinancing', 'derived_sex': 'Female'}</t>
+          <t>{'loan_amount': 'More than 300k', 'derived_sex': 'Female', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.007751937984496124</v>
+        <v>0.03523608174770965</v>
       </c>
       <c r="F39" t="n">
         <v>1</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1.58336166672049e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RULE141</t>
+          <t>RULE119</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1780,7 +1780,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'derived_sex': 'Female', 'income': '100k-200k'}</t>
+          <t>{'loan_purpose': 'Cash-out refinancing', 'derived_sex': 'Female', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1789,22 +1789,22 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.04510218463706836</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9846153846153847</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2246153846153847</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="H40" t="n">
-        <v>0.001326781493653084</v>
+        <v>0.0001979263937925949</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RULE143</t>
+          <t>RULE122</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1814,7 +1814,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'income': '50k-100k', 'derived_sex': 'Female'}</t>
+          <t>{'loan_purpose': 'Refinancing', 'derived_sex': 'Female', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1823,22 +1823,22 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.03664552501761804</v>
+        <v>0.03171247357293869</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H41" t="n">
-        <v>1.240389189057968e-05</v>
+        <v>0.0003475567191487389</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RULE145</t>
+          <t>RULE125</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1848,7 +1848,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_amount': 'More than 300k', 'derived_sex': 'Female'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Male', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1857,22 +1857,22 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.03523608174770965</v>
+        <v>0.02959830866807611</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.2432432432432432</v>
       </c>
       <c r="H42" t="n">
-        <v>1.083497425542135e-05</v>
+        <v>0.001701077973854312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RULE146</t>
+          <t>RULE126</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Cash-out refinancing', 'derived_sex': 'Female'}</t>
+          <t>{'income': '50k-100k', 'derived_sex': 'Male', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1891,22 +1891,22 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.02466525722339676</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2352941176470589</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002352116072784438</v>
+        <v>0.001661479843090865</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>RULE149</t>
+          <t>RULE132</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Refinancing', 'derived_sex': 'Female'}</t>
+          <t>{'income': '100k-200k', 'loan_amount': 'More than 300k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1925,22 +1925,22 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>0.03171247357293869</v>
+        <v>0.03875968992248062</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.375</v>
+        <v>0.3148148148148148</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0001879132847042545</v>
+        <v>4.486958946917067e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>RULE150</t>
+          <t>RULE133</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1950,7 +1950,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'derived_sex': 'Joint', 'income': '100k-200k'}</t>
+          <t>{'income': '100k-200k', 'loan_purpose': 'Cash-out refinancing', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1959,22 +1959,22 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.009866102889358703</v>
+        <v>0.02255109231853418</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H45" t="n">
-        <v>0.0046132868166852</v>
+        <v>0.0007056167804647252</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RULE151</t>
+          <t>RULE137</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1984,7 +1984,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'derived_sex': 'Joint', 'loan_purpose': 'Cash-out refinancing'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'income': '20k-50k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1993,7 +1993,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.007047216349541931</v>
+        <v>0.006342494714587738</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -2008,7 +2008,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>RULE152</t>
+          <t>RULE140</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'derived_sex': 'Male', 'income': '100k-200k'}</t>
+          <t>{'income': '50k-100k', 'loan_amount': 'More than 300k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2027,22 +2027,22 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>0.02959830866807611</v>
+        <v>0.02889358703312192</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2432432432432432</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="H47" t="n">
-        <v>0.001701077973854312</v>
+        <v>3.886054500574958e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>RULE155</t>
+          <t>RULE143</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2052,7 +2052,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_amount': '100k-300k', 'derived_sex': 'Male'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'income': '50k-100k', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2061,22 +2061,22 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.02396053558844256</v>
+        <v>0.01268498942917548</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0006358126581229229</v>
+        <v>0.006621774943015233</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>RULE162</t>
+          <t>RULE144</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_amount': 'More than 300k', 'income': '100k-200k'}</t>
+          <t>{'income': '50k-100k', 'loan_purpose': 'Refinancing', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2095,22 +2095,22 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.03875968992248062</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.352684233190759e-06</v>
+        <v>0.002972218668599609</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>RULE163</t>
+          <t>RULE151</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Cash-out refinancing', 'income': '100k-200k'}</t>
+          <t>{'loan_amount': 'More than 300k', 'loan_purpose': 'Cash-out refinancing', 'debt_to_income_ratio': '36%-50%'}</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2129,22 +2129,22 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>0.02255109231853418</v>
+        <v>0.03453136011275546</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0006713143739314867</v>
+        <v>4.612917030265928e-05</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>RULE169</t>
+          <t>RULE223</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2154,7 +2154,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Home purchase', 'income': '20k-50k'}</t>
+          <t>{'income': '100k-200k', 'loan_amount': 'More than 300k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2163,22 +2163,22 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.006342494714587738</v>
+        <v>0.05144467935165609</v>
       </c>
       <c r="F51" t="n">
         <v>1</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0.225</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>0.0001059354021567354</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RULE172</t>
+          <t>RULE232</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2188,7 +2188,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_amount': 'More than 300k', 'income': '50k-100k'}</t>
+          <t>{'income': '50k-100k', 'loan_amount': 'More than 300k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2200,19 +2200,19 @@
         <v>0.02889358703312192</v>
       </c>
       <c r="F52" t="n">
-        <v>1</v>
+        <v>0.9761904761904762</v>
       </c>
       <c r="G52" t="n">
-        <v>0.4838709677419355</v>
+        <v>0.4004329004329004</v>
       </c>
       <c r="H52" t="n">
-        <v>5.300315166304618e-05</v>
+        <v>0.0003095919581393117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RULE174</t>
+          <t>RULE234</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Home purchase', 'income': '50k-100k'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'income': '50k-100k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2231,22 +2231,22 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>0.01268498942917548</v>
+        <v>0.0204369274136716</v>
       </c>
       <c r="F53" t="n">
         <v>1</v>
       </c>
       <c r="G53" t="n">
-        <v>0.4285714285714286</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="H53" t="n">
-        <v>0.009763996716226585</v>
+        <v>0.001735971538380577</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RULE175</t>
+          <t>RULE236</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_purpose': 'Refinancing', 'income': '50k-100k'}</t>
+          <t>{'income': '50k-100k', 'loan_purpose': 'Refinancing', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2265,22 +2265,22 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>0.01550387596899225</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0.972972972972973</v>
       </c>
       <c r="G54" t="n">
-        <v>0.5625</v>
+        <v>0.2806652806652807</v>
       </c>
       <c r="H54" t="n">
-        <v>0.00229659180319201</v>
+        <v>0.005461983899803509</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RULE183</t>
+          <t>RULE243</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'loan_amount': 'More than 300k', 'loan_purpose': 'Cash-out refinancing'}</t>
+          <t>{'loan_amount': 'More than 300k', 'loan_purpose': 'Cash-out refinancing', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2299,22 +2299,22 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.03453136011275546</v>
+        <v>0.03312191684284708</v>
       </c>
       <c r="F55" t="n">
         <v>1</v>
       </c>
       <c r="G55" t="n">
-        <v>0.4137931034482759</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="H55" t="n">
-        <v>4.612917030265928e-05</v>
+        <v>0.0001154934314231437</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RULE254</t>
+          <t>RULE244</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2324,7 +2324,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>{'loan_amount': 'More than 300k', 'derived_sex': 'Female', 'income': '100k-200k'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'loan_amount': 'More than 300k', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2333,22 +2333,22 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.05144467935165609</v>
+        <v>0.02536997885835095</v>
       </c>
       <c r="F56" t="n">
         <v>1</v>
       </c>
       <c r="G56" t="n">
-        <v>0.2</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="H56" t="n">
-        <v>0.0002350790046294604</v>
+        <v>0.0001773215175696324</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RULE255</t>
+          <t>RULE246</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Cash-out refinancing', 'derived_sex': 'Female', 'income': '100k-200k'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Joint', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2367,22 +2367,22 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>0.02959830866807611</v>
+        <v>0.01620859760394644</v>
       </c>
       <c r="F57" t="n">
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.3095238095238095</v>
       </c>
       <c r="H57" t="n">
-        <v>0.0003565192607916412</v>
+        <v>0.005582007709048667</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RULE268</t>
+          <t>RULE254</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>{'income': '50k-100k', 'loan_purpose': 'Refinancing', 'derived_sex': 'Female'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Male', 'loan_amount': '100k-300k'}</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2401,22 +2401,22 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>0.02607470049330515</v>
+        <v>0.0310077519379845</v>
       </c>
       <c r="F58" t="n">
         <v>1</v>
       </c>
       <c r="G58" t="n">
-        <v>0.3461538461538461</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="H58" t="n">
-        <v>0.0007351139297763617</v>
+        <v>0.002183135486137042</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>RULE278</t>
+          <t>RULE256</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>{'derived_sex': 'Joint', 'loan_amount': 'More than 300k', 'income': '100k-200k'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Male', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2435,22 +2435,22 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.01620859760394644</v>
+        <v>0.04228329809725159</v>
       </c>
       <c r="F59" t="n">
         <v>1</v>
       </c>
       <c r="G59" t="n">
-        <v>0.5238095238095238</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="H59" t="n">
-        <v>0.0002938702395305967</v>
+        <v>0.001395196851069432</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RULE286</t>
+          <t>RULE259</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Refinancing', 'derived_sex': 'Joint', 'loan_amount': 'More than 300k'}</t>
+          <t>{'income': '100k-200k', 'derived_sex': 'Male', 'loan_purpose': 'Home purchase'}</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2469,22 +2469,22 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.01338971106412967</v>
+        <v>0.01198026779422128</v>
       </c>
       <c r="F60" t="n">
         <v>1</v>
       </c>
       <c r="G60" t="n">
-        <v>0.3064516129032258</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="H60" t="n">
-        <v>0.008655646723497067</v>
+        <v>0.008405092479283</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RULE289</t>
+          <t>RULE284</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>{'loan_amount': 'More than 300k', 'derived_sex': 'Male', 'income': '100k-200k'}</t>
+          <t>{'income': '100k-200k', 'loan_purpose': 'Cash-out refinancing', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2503,22 +2503,22 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.04228329809725159</v>
+        <v>0.03946441155743481</v>
       </c>
       <c r="F61" t="n">
         <v>1</v>
       </c>
       <c r="G61" t="n">
-        <v>0.1267605633802817</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="H61" t="n">
-        <v>0.005653420884703454</v>
+        <v>9.271865710428658e-06</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RULE292</t>
+          <t>RULE285</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2528,7 +2528,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>{'loan_purpose': 'Home purchase', 'derived_sex': 'Male', 'income': '100k-200k'}</t>
+          <t>{'income': '100k-200k', 'loan_purpose': 'Home purchase', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2537,22 +2537,22 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>0.01198026779422128</v>
+        <v>0.02607470049330515</v>
       </c>
       <c r="F62" t="n">
         <v>1</v>
       </c>
       <c r="G62" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.5</v>
       </c>
       <c r="H62" t="n">
-        <v>0.008405092479283</v>
+        <v>6.36501565206724e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>RULE322</t>
+          <t>RULE295</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2562,7 +2562,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>{'loan_amount': 'More than 300k', 'loan_purpose': 'Cash-out refinancing', 'income': '100k-200k'}</t>
+          <t>{'loan_purpose': 'Home purchase', 'income': '50k-100k', 'loan_amount': 'More than 300k'}</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2571,151 +2571,49 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>0.03946441155743481</v>
+        <v>0.01550387596899225</v>
       </c>
       <c r="F63" t="n">
         <v>1</v>
       </c>
       <c r="G63" t="n">
-        <v>0.3333333333333334</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="H63" t="n">
-        <v>7.598935243163655e-05</v>
+        <v>0.00109543328166973</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RULE323</t>
+          <t>RULE404</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>{'derived_race': 'Black or African American'}</t>
+          <t>{'derived_race': 'White'}</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>{'loan_amount': 'More than 300k', 'loan_purpose': 'Home purchase', 'income': '100k-200k'}</t>
+          <t>{'income': '100k-200k', 'loan_purpose': 'Cash-out refinancing', 'derived_sex': 'Female'}</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>{'action_taken': 'Denied'}</t>
+          <t>{'action_taken': 'Approved'}</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.02607470049330515</v>
+        <v>0.005637773079633545</v>
       </c>
       <c r="F64" t="n">
-        <v>1</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="G64" t="n">
-        <v>0.6764705882352942</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="H64" t="n">
-        <v>2.562791579686253e-05</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>RULE440</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>{'derived_race': 'White'}</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>{'loan_purpose': 'Refinancing', 'derived_sex': 'Joint', 'debt_to_income_ratio': '20%-&lt;30%'}</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>{'action_taken': 'Approved'}</t>
-        </is>
-      </c>
-      <c r="E65" t="n">
-        <v>0.01338971106412967</v>
-      </c>
-      <c r="F65" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0.9047619047619048</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>RULE442</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>{'derived_race': 'White'}</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>{'debt_to_income_ratio': '36%-50%', 'derived_sex': 'Joint', 'loan_purpose': 'Cash-out refinancing'}</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>{'action_taken': 'Approved'}</t>
-        </is>
-      </c>
-      <c r="E66" t="n">
-        <v>0.006342494714587738</v>
-      </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>1</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>RULE446</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>{'derived_race': 'White'}</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>{'derived_sex': 'Joint', 'loan_purpose': 'Home purchase', 'income': '100k-200k'}</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>{'action_taken': 'Approved'}</t>
-        </is>
-      </c>
-      <c r="E67" t="n">
-        <v>0.008456659619450317</v>
-      </c>
-      <c r="F67" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H67" t="n">
         <v>0</v>
       </c>
     </row>
